--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>854736.8503638568</v>
+        <v>857441.3328348495</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238722</v>
+        <v>1667317.432543013</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461765</v>
+        <v>7966425.4779778</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7484325.141291535</v>
+        <v>7950208.068303408</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>349.7480363891209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>378.116723629329</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>302.1039338310258</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>374.4223575008839</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>76.74086563202131</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>66.68447052885357</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>278.3724469333629</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>164.6862898438033</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>161.4085122120592</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>318.9744712724925</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>336.748425770774</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>66.68447052885355</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>271.4782620917445</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>89.75224518888598</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2083,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>66.68447052885357</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -2141,10 +2143,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>298.1513958275521</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.66637815986219</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>53.03638470914613</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,19 +2320,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>362.0199558049727</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>251.2218493092673</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>215.06155659629</v>
+        <v>53.03638470914613</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2558,19 +2560,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>180.200564157491</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>304.9220910887695</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>77.8420816168085</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>66.68447052885357</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>108.8247535352256</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>135.6080414479073</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>146.8340739597079</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3034,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>66.68447052885357</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>92.31340177010391</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3187,28 +3189,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>85.84356265118763</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>263.9554347777213</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>309.0259063600336</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>159.3149947016328</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>51.05925556456901</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3508,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.192128876087</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>149.9104226965712</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3755,10 +3757,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>366.6075913369107</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>372.5691087481966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3989,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>256.7115579699416</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>289.1043232126787</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1179.210445219441</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="C2" t="n">
-        <v>786.0349437223717</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="D2" t="n">
-        <v>400.5938149390395</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154361</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L2" t="n">
-        <v>540.6332618200724</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M2" t="n">
-        <v>1086.634161864653</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.42141205333</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.64850507718</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.64850507718</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.195900010237</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y2" t="n">
-        <v>1579.705190930838</v>
+        <v>1319.638135031227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>1436.116207068686</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N3" t="n">
-        <v>1849.128222486199</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O3" t="n">
-        <v>2365.64850507718</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154361</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M4" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N4" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O4" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P4" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1575.70115429884</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="C5" t="n">
-        <v>1182.525652801771</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="D5" t="n">
-        <v>877.3701640835627</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="E5" t="n">
-        <v>877.3701640835627</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.195900010237</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.195900010237</v>
+        <v>941.4337335151823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M6" t="n">
-        <v>850.6182020620834</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N6" t="n">
-        <v>1436.116207068686</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.636489659666</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P6" t="n">
-        <v>2358.257858376064</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>763.5519739517948</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>593.346856017784</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>437.7137429202988</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>282.1549307795013</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>124.8289959924742</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K7" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M7" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N7" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O7" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P7" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q7" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1259.966434952091</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C8" t="n">
-        <v>866.7909334550213</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D8" t="n">
-        <v>866.7909334550213</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E8" t="n">
-        <v>464.2074085715658</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.641433863169</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W8" t="n">
-        <v>1937.641433863169</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X8" t="n">
-        <v>1656.45714403149</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y8" t="n">
-        <v>1259.966434952091</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K10" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M10" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N10" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O10" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P10" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q10" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>663.3212008849971</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>397.3418557058213</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>114.011453636999</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.31297010154361</v>
+        <v>2308.970930414981</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154361</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J11" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
-        <v>943.648829263616</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
-        <v>1489.649729308197</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2017.461012945658</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2202.609603852878</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>1946.856874287477</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>1604.750064990995</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>1233.751029959283</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X11" t="n">
-        <v>844.2984248923394</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y11" t="n">
-        <v>447.8077158129405</v>
+        <v>2709.465676126377</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.875066013061</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>2218.395348604042</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2218.395348604042</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X12" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154361</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154361</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154361</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K13" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M13" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N13" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O13" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P13" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q13" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154361</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1228.513125265401</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C14" t="n">
-        <v>835.3376237683314</v>
+        <v>522.652680240431</v>
       </c>
       <c r="D14" t="n">
-        <v>449.8964949849991</v>
+        <v>522.652680240431</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>522.652680240431</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>522.652680240431</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>522.652680240431</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X14" t="n">
-        <v>2025.498580056196</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y14" t="n">
-        <v>1629.007870976798</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1436.116207068686</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>2021.614212075288</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>2365.64850507718</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X15" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M16" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N16" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O16" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P16" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q16" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1965.153759365783</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.978257868714</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D17" t="n">
-        <v>1186.537129085382</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E17" t="n">
-        <v>783.9536042019261</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F17" t="n">
-        <v>783.9536042019261</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G17" t="n">
-        <v>509.7331374425881</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>185.6500870090788</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.64850507718</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.64850507718</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>47.31297010154361</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>632.8109751081457</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1218.308980114748</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1734.829262705729</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
-        <v>2140.450631422126</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>260.751451778568</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>260.751451778568</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>260.751451778568</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>260.751451778568</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>260.751451778568</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T19" t="n">
-        <v>787.8357555707396</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="U19" t="n">
-        <v>787.8357555707396</v>
+        <v>351.4102853026953</v>
       </c>
       <c r="V19" t="n">
-        <v>787.8357555707396</v>
+        <v>351.4102853026953</v>
       </c>
       <c r="W19" t="n">
-        <v>504.5053535019172</v>
+        <v>351.4102853026953</v>
       </c>
       <c r="X19" t="n">
-        <v>270.4250312849002</v>
+        <v>351.4102853026953</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>260.751451778568</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1019.934207965129</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C20" t="n">
-        <v>1019.934207965129</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D20" t="n">
-        <v>1019.934207965129</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E20" t="n">
-        <v>617.350683081673</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5774,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T20" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U20" t="n">
-        <v>2460.189498140842</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V20" t="n">
-        <v>2118.082688844361</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W20" t="n">
-        <v>2118.082688844361</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X20" t="n">
-        <v>1816.919662755924</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y20" t="n">
-        <v>1420.428953676525</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>731.2203758373341</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C22" t="n">
-        <v>561.0152579033233</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D22" t="n">
-        <v>405.3821448058382</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E22" t="n">
-        <v>249.8233326650406</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F22" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G22" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H22" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I22" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R22" t="n">
-        <v>916.4283945286354</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S22" t="n">
-        <v>916.4283945286354</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="T22" t="n">
-        <v>916.4283945286354</v>
+        <v>2543.520260189137</v>
       </c>
       <c r="U22" t="n">
-        <v>916.4283945286354</v>
+        <v>2258.081468431038</v>
       </c>
       <c r="V22" t="n">
-        <v>916.4283945286354</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="W22" t="n">
-        <v>916.4283945286354</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="X22" t="n">
-        <v>916.4283945286354</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.4283945286354</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1294.75984656959</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="C23" t="n">
-        <v>1294.75984656959</v>
+        <v>813.2369795227737</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.75984656959</v>
+        <v>427.7958507394414</v>
       </c>
       <c r="E23" t="n">
-        <v>892.1763216861347</v>
+        <v>427.7958507394414</v>
       </c>
       <c r="F23" t="n">
-        <v>475.2818832161124</v>
+        <v>427.7958507394414</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6023,16 +6025,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2852.196941459042</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W23" t="n">
-        <v>2481.197906427329</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X23" t="n">
-        <v>2091.745301360386</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y23" t="n">
-        <v>1695.254592280987</v>
+        <v>1606.90722673124</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>543.5161708764091</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C25" t="n">
-        <v>373.3110529423983</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D25" t="n">
-        <v>217.677939844913</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S25" t="n">
-        <v>760.7500664282172</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="T25" t="n">
-        <v>760.7500664282172</v>
+        <v>2543.520260189137</v>
       </c>
       <c r="U25" t="n">
-        <v>760.7500664282172</v>
+        <v>2258.081468431038</v>
       </c>
       <c r="V25" t="n">
-        <v>543.5161708764091</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="W25" t="n">
-        <v>543.5161708764091</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="X25" t="n">
-        <v>543.5161708764091</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y25" t="n">
-        <v>543.5161708764091</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>857.8781540846405</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C26" t="n">
-        <v>464.702652587571</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D26" t="n">
-        <v>464.702652587571</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E26" t="n">
-        <v>62.11912770411553</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6251,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2757.422058270573</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2757.422058270573</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2415.315248974092</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>2044.316213942379</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X26" t="n">
-        <v>1654.863608875436</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y26" t="n">
-        <v>1258.372899796037</v>
+        <v>2797.954272994898</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.047036270552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
@@ -6412,22 +6414,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>678.1273584875689</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>444.047036270552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.047036270552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>840.7357579845172</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C29" t="n">
-        <v>447.5602564874478</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>2996.032391735851</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2740.27966217045</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2398.172852873969</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>2027.173817842256</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X29" t="n">
-        <v>1637.721212775313</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y29" t="n">
-        <v>1241.230503695914</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
-        <v>580.3847592515303</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N30" t="n">
-        <v>1863.93438008877</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O30" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E31" t="n">
-        <v>2667.067170996156</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F31" t="n">
-        <v>2509.741236209129</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G31" t="n">
-        <v>2341.487182308575</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H31" t="n">
         <v>2204.509362664224</v>
@@ -6649,22 +6651,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="W31" t="n">
-        <v>2822.625983136954</v>
+        <v>2586.906931305188</v>
       </c>
       <c r="X31" t="n">
-        <v>2822.625983136954</v>
+        <v>2352.826609088171</v>
       </c>
       <c r="Y31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1826.272464974195</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C32" t="n">
-        <v>1433.096963477125</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D32" t="n">
-        <v>1433.096963477125</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E32" t="n">
-        <v>1030.51343859367</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F32" t="n">
-        <v>613.6190001236475</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6722,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V32" t="n">
-        <v>3105.956385205776</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W32" t="n">
-        <v>3012.710524831934</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X32" t="n">
-        <v>2623.257919764991</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y32" t="n">
-        <v>2226.767210685592</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>346.9752758473783</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>830.5413617456916</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.509362664224</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>2935.751267271766</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>2935.751267271766</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>2691.714663140105</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>2367.982058201044</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>2234.887632838122</v>
       </c>
       <c r="J34" t="n">
         <v>2204.509362664224</v>
@@ -6892,16 +6894,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V34" t="n">
-        <v>2839.977040026601</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W34" t="n">
-        <v>2556.646637957778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X34" t="n">
-        <v>2322.566315740761</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.509362664224</v>
+        <v>3105.956385205776</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1606.90722673124</v>
+        <v>1340.285575440613</v>
       </c>
       <c r="C35" t="n">
-        <v>1606.90722673124</v>
+        <v>1340.285575440613</v>
       </c>
       <c r="D35" t="n">
-        <v>1294.75984656959</v>
+        <v>1340.285575440613</v>
       </c>
       <c r="E35" t="n">
-        <v>892.1763216861347</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F35" t="n">
-        <v>475.2818832161124</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C36" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D36" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G36" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>822.3203958792419</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>1305.886481777555</v>
       </c>
       <c r="M36" t="n">
-        <v>1493.196009291336</v>
+        <v>1933.658131404236</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>2589.436102614795</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q36" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R36" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S36" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T36" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U36" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V36" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W36" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X36" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y36" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.847098413902</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C37" t="n">
-        <v>727.847098413902</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D37" t="n">
-        <v>727.847098413902</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E37" t="n">
-        <v>676.2720927931252</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F37" t="n">
-        <v>518.9461580060981</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G37" t="n">
-        <v>350.6921041055436</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H37" t="n">
-        <v>195.2135530670377</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T37" t="n">
-        <v>727.847098413902</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U37" t="n">
-        <v>727.847098413902</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V37" t="n">
-        <v>727.847098413902</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W37" t="n">
-        <v>727.847098413902</v>
+        <v>2822.625983136954</v>
       </c>
       <c r="X37" t="n">
-        <v>727.847098413902</v>
+        <v>2588.545660919937</v>
       </c>
       <c r="Y37" t="n">
-        <v>727.847098413902</v>
+        <v>2365.43359973658</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>593.6317461087201</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C38" t="n">
-        <v>200.4562446116507</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D38" t="n">
-        <v>200.4562446116507</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>200.4562446116507</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F38" t="n">
-        <v>200.4562446116507</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7199,25 +7201,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>2972.428982300638</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>2748.928379860055</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>2493.175650294653</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2151.068840998172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W38" t="n">
-        <v>1780.069805966459</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X38" t="n">
-        <v>1390.617200899516</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y38" t="n">
-        <v>994.1264918201171</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.0961595639906</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="C40" t="n">
-        <v>698.8910416299798</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="D40" t="n">
-        <v>543.2579285324946</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="E40" t="n">
-        <v>387.699116391697</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F40" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
         <v>62.11912770411553</v>
@@ -7354,28 +7356,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S40" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>485.4244076703184</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>485.4244076703184</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="X40" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2073.376476849992</v>
+        <v>1747.771990524249</v>
       </c>
       <c r="C41" t="n">
-        <v>1680.200975352922</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="D41" t="n">
-        <v>1294.75984656959</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861347</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F41" t="n">
-        <v>475.2818832161124</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7436,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U41" t="n">
-        <v>2850.203655640375</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V41" t="n">
-        <v>2850.203655640375</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W41" t="n">
-        <v>2850.203655640375</v>
+        <v>1747.771990524249</v>
       </c>
       <c r="X41" t="n">
-        <v>2850.203655640375</v>
+        <v>1747.771990524249</v>
       </c>
       <c r="Y41" t="n">
-        <v>2473.871222561389</v>
+        <v>1747.771990524249</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7499,16 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E43" t="n">
         <v>62.11912770411553</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>525.0310145964513</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>239.5922228383523</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>239.5922228383523</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5922228383523</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
-        <v>239.5922228383523</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1673.129190464088</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C44" t="n">
-        <v>1279.953688967018</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.953688967018</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>738.3181701841797</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>321.4237317141575</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1044.265390756362</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1590.266290800943</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1590.266290800943</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2030.305891693271</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X44" t="n">
-        <v>2365.64850507718</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y44" t="n">
-        <v>2073.623936175485</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>194.5661265746808</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>678.1322124729941</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1263.630217479596</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
-        <v>1849.128222486198</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2365.648505077179</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.648505077179</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.8850758683575</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>100.8850758683575</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>824.8590032756731</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>622.0429194582225</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>100.8850758683575</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V46" t="n">
-        <v>100.8850758683575</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W46" t="n">
-        <v>100.8850758683575</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X46" t="n">
-        <v>100.8850758683575</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>100.8850758683575</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7988,7 +7990,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>644.8631884980639</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>502.5559668112513</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8228,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8297,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.45345285401062</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8532,16 +8534,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>588.7923855055299</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8552,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8693,7 +8695,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>549.9186043019891</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8702,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,16 +8771,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8789,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>239.7287152499919</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -8939,13 +8941,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,22 +9008,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>440.1969457594874</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9176,13 +9178,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9246,22 +9248,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
-        <v>318.4607528074828</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,22 +9482,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9717,7 +9719,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9732,7 +9734,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -10191,7 +10193,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10206,7 +10208,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10428,7 +10430,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>377.3304183063261</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10437,13 +10439,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10665,7 +10667,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10674,7 +10676,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>223.122899967847</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10685,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,10 +10904,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11145,7 +11147,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,10 +11156,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11306,13 +11308,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>302.3186727388648</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11376,25 +11378,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>238.3374974274113</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>48.80965324549999</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>34.60877045599301</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22711,22 +22713,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,16 +22755,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>79.48278366447317</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>18.10344448772094</v>
       </c>
     </row>
     <row r="6">
@@ -22939,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>89.8306477295276</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -23075,16 +23077,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>107.1856320829108</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23182,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23233,16 +23235,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>224.5574566382954</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>59.85708420411831</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,22 +23424,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -23510,10 +23512,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>1.867748656681783</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>48.80965324549976</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23735,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>137.5528658651323</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23902,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23911,7 +23913,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>74.04686661181526</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>131.1286953826371</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
@@ -23987,7 +23989,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24029,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>87.40668318872162</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24148,7 +24150,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>75.99560131388661</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182379</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24206,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>47.01117215190419</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24263,7 +24265,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>87.46389189424951</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>48.25799513109396</v>
+        <v>210.2831670182379</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24446,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24491,25 +24493,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>41.0650322586865</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>87.60371089983539</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24603,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24616,10 +24618,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>76.08168391131245</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24652,19 +24654,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>112.4408428809519</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>18.31572408021367</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24889,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>74.04686661181518</v>
       </c>
     </row>
     <row r="32">
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>274.9756429112915</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,28 +25077,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>68.15966136820188</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.004557025751</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>132.5343634765616</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>72.56081113546537</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>24.04094380275544</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25318,19 +25320,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>102.9439684548205</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25363,7 +25365,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
@@ -25372,13 +25374,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>32.65629063227294</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>83.451438616877</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0.6814533444846802</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.9566932404083</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25792,7 +25794,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>87.97172531928879</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25834,25 +25836,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>45.18257638862872</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25928,10 +25930,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>103.4214787759262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>101.0403972573646</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>610278.6676445313</v>
+        <v>687548.5210013444</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>610278.6676445309</v>
+        <v>687548.5210013444</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>610278.6676445313</v>
+        <v>687548.5210013444</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610278.6676445313</v>
+        <v>687548.5210013442</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610278.6676445313</v>
+        <v>687548.5210013444</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610278.6676445313</v>
+        <v>687548.5210013443</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687548.5210013442</v>
+        <v>687548.5210013444</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>687548.5210013444</v>
+        <v>687548.5210013442</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687548.5210013443</v>
+        <v>687548.5210013444</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>687548.5210013443</v>
+        <v>687548.5210013444</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>687548.5210013444</v>
+        <v>687548.5210013442</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>687548.5210013442</v>
+        <v>687548.5210013443</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>610278.6676445311</v>
+        <v>687548.5210013442</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214566.1743955704</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="C2" t="n">
-        <v>214566.1743955704</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="D2" t="n">
-        <v>214566.1743955704</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="E2" t="n">
-        <v>214566.1743955704</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="F2" t="n">
-        <v>214566.1743955704</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="G2" t="n">
-        <v>214566.1743955703</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="H2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="I2" t="n">
         <v>241723.0823229923</v>
@@ -26347,13 +26349,13 @@
         <v>241723.0823229922</v>
       </c>
       <c r="N2" t="n">
+        <v>241723.0823229923</v>
+      </c>
+      <c r="O2" t="n">
         <v>241723.0823229922</v>
       </c>
-      <c r="O2" t="n">
-        <v>241723.0823229923</v>
-      </c>
       <c r="P2" t="n">
-        <v>214566.1743955704</v>
+        <v>241723.0823229922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>260219.3554198288</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656034</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34799.20444337102</v>
+        <v>39261.69958392654</v>
       </c>
       <c r="C4" t="n">
-        <v>34799.20444337101</v>
+        <v>39261.69958392654</v>
       </c>
       <c r="D4" t="n">
-        <v>34799.20444337101</v>
+        <v>39261.69958392654</v>
       </c>
       <c r="E4" t="n">
-        <v>34799.20444337102</v>
+        <v>39261.69958392654</v>
       </c>
       <c r="F4" t="n">
-        <v>34799.20444337103</v>
+        <v>39261.69958392654</v>
       </c>
       <c r="G4" t="n">
-        <v>34799.20444337102</v>
+        <v>39261.69958392654</v>
       </c>
       <c r="H4" t="n">
         <v>39261.69958392654</v>
@@ -26457,7 +26459,7 @@
         <v>39261.69958392654</v>
       </c>
       <c r="P4" t="n">
-        <v>34799.20444337101</v>
+        <v>39261.69958392654</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88014.29331671871</v>
+        <v>-138596.1097358909</v>
       </c>
       <c r="C6" t="n">
-        <v>110181.5126750262</v>
+        <v>121623.2456839379</v>
       </c>
       <c r="D6" t="n">
-        <v>110181.5126750263</v>
+        <v>121623.2456839378</v>
       </c>
       <c r="E6" t="n">
-        <v>143809.1126750262</v>
+        <v>155250.8456839379</v>
       </c>
       <c r="F6" t="n">
-        <v>143809.1126750262</v>
+        <v>155250.8456839379</v>
       </c>
       <c r="G6" t="n">
-        <v>143809.1126750261</v>
+        <v>155250.845683938</v>
       </c>
       <c r="H6" t="n">
-        <v>105315.4134765339</v>
+        <v>155250.8456839378</v>
       </c>
       <c r="I6" t="n">
         <v>155250.845683938</v>
       </c>
       <c r="J6" t="n">
-        <v>511.4113183344452</v>
+        <v>-47912.86742875713</v>
       </c>
       <c r="K6" t="n">
         <v>155250.8456839379</v>
@@ -26555,13 +26557,13 @@
         <v>155250.8456839379</v>
       </c>
       <c r="N6" t="n">
+        <v>155250.845683938</v>
+      </c>
+      <c r="O6" t="n">
         <v>155250.8456839379</v>
       </c>
-      <c r="O6" t="n">
-        <v>155250.845683938</v>
-      </c>
       <c r="P6" t="n">
-        <v>143809.1126750263</v>
+        <v>155250.8456839379</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34708,7 +34710,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>495.7446971602798</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>417.1838539570846</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.465299698096623</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>503.4202726513632</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>396.6704345714974</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35422,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35659,13 +35661,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>347.5093868705986</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35896,13 +35898,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.4725996515689</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36452,7 +36454,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36926,7 +36928,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37157,13 +37159,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>35.05004611020369</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37394,7 +37396,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>137.7507871136803</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37865,7 +37867,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,10 +37876,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,13 +38028,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>152.0172254979396</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>148.740562094078</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>857441.3328348495</v>
+        <v>852907.5096653517</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.4779778</v>
+        <v>7966425.477977804</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7950208.068303408</v>
+        <v>7950208.06830341</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>378.116723629329</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -679,7 +679,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>236.0681262629182</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -724,7 +724,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6846499321094</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -952,10 +952,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -964,7 +964,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>374.4223575008839</v>
+        <v>90.31295682972548</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>144.7467681673238</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -1113,13 +1113,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>220.6583446859884</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>66.68447052885357</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1195,7 +1195,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>164.6862898438033</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>146.7630307487374</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>131.6846499321094</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>40.67590900987343</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>218.7787916943015</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>318.9744712724925</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
@@ -1675,7 +1675,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>66.68447052885355</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>3.800613650335349</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>93.25049749325707</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.75224518888598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>66.68447052885357</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>243.618361048834</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>53.03638470914613</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>362.0199558049727</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>53.03638470914613</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2572,7 +2572,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>162.3191296396163</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>304.9220910887695</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2797,19 +2797,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>66.68447052885357</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>148.8136220965693</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -2857,10 +2857,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>146.8340739597079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>66.68447052885357</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -3085,19 +3085,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>378.855489315444</v>
       </c>
     </row>
     <row r="33">
@@ -3189,28 +3189,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>85.84356265118763</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>263.9554347777213</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>13.94053362821059</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>159.3149947016328</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>361.6300242550905</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>233.2385090293388</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>149.9104226965712</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3760,7 +3760,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>366.6075913369107</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>293.9830065956634</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3982,7 +3982,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3991,13 +3991,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>256.7115579699416</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>54.14448028450683</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1319.638135031227</v>
+        <v>1587.389587316409</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.638135031227</v>
+        <v>1587.389587316409</v>
       </c>
       <c r="D2" t="n">
-        <v>1319.638135031227</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.638135031227</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F2" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T2" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U2" t="n">
-        <v>2422.196584426364</v>
+        <v>2700.990177356</v>
       </c>
       <c r="V2" t="n">
-        <v>2080.089775129883</v>
+        <v>2358.883368059519</v>
       </c>
       <c r="W2" t="n">
-        <v>1709.09074009817</v>
+        <v>1987.884333027806</v>
       </c>
       <c r="X2" t="n">
-        <v>1319.638135031227</v>
+        <v>1987.884333027806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1319.638135031227</v>
+        <v>1987.884333027806</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L3" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M3" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N3" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O3" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P3" t="n">
         <v>2380.454662679751</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4512,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>839.6651608782449</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U4" t="n">
-        <v>839.6651608782449</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V4" t="n">
-        <v>839.6651608782449</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W4" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>941.4337335151823</v>
+        <v>1826.272464974195</v>
       </c>
       <c r="C5" t="n">
-        <v>941.4337335151823</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D5" t="n">
-        <v>941.4337335151823</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E5" t="n">
-        <v>941.4337335151823</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F5" t="n">
-        <v>524.5392950451601</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H5" t="n">
         <v>200.4562446116507</v>
@@ -4600,19 +4600,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2422.196584426364</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V5" t="n">
-        <v>2080.089775129883</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W5" t="n">
-        <v>1709.09074009817</v>
+        <v>2306.950278960053</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.638135031227</v>
+        <v>1917.49767389311</v>
       </c>
       <c r="Y5" t="n">
-        <v>941.4337335151823</v>
+        <v>1826.272464974195</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N6" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O6" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P6" t="n">
         <v>2380.454662679751</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411553</v>
+        <v>208.327984438786</v>
       </c>
       <c r="C7" t="n">
         <v>62.11912770411553</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411553</v>
+        <v>442.408306655803</v>
       </c>
       <c r="W7" t="n">
-        <v>62.11912770411553</v>
+        <v>442.408306655803</v>
       </c>
       <c r="X7" t="n">
-        <v>62.11912770411553</v>
+        <v>208.327984438786</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11912770411553</v>
+        <v>208.327984438786</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>522.652680240431</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="C8" t="n">
-        <v>129.4771787433615</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D8" t="n">
-        <v>62.11912770411551</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E8" t="n">
-        <v>62.11912770411551</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F8" t="n">
-        <v>62.11912770411551</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G8" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4834,22 +4834,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U8" t="n">
-        <v>2422.196584426364</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V8" t="n">
-        <v>2080.089775129883</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="W8" t="n">
-        <v>1709.09074009817</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="X8" t="n">
-        <v>1319.638135031227</v>
+        <v>1914.137772503523</v>
       </c>
       <c r="Y8" t="n">
-        <v>923.1474259518279</v>
+        <v>1517.647063424124</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L9" t="n">
-        <v>580.3847592515303</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O9" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4992,22 +4992,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2308.970930414981</v>
+        <v>2281.458604912366</v>
       </c>
       <c r="C11" t="n">
-        <v>2142.621142693967</v>
+        <v>1888.283103415297</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.180013910635</v>
+        <v>1502.841974631965</v>
       </c>
       <c r="E11" t="n">
         <v>1354.596489027179</v>
@@ -5038,7 +5038,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y11" t="n">
-        <v>2709.465676126377</v>
+        <v>2281.458604912366</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.6651608782449</v>
+        <v>258.8390175792507</v>
       </c>
       <c r="C13" t="n">
-        <v>839.6651608782449</v>
+        <v>258.8390175792507</v>
       </c>
       <c r="D13" t="n">
-        <v>839.6651608782449</v>
+        <v>103.2059044817655</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>103.2059044817655</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>103.2059044817655</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5223,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U13" t="n">
-        <v>839.6651608782449</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V13" t="n">
-        <v>839.6651608782449</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W13" t="n">
-        <v>839.6651608782449</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="X13" t="n">
-        <v>839.6651608782449</v>
+        <v>444.047036270552</v>
       </c>
       <c r="Y13" t="n">
-        <v>839.6651608782449</v>
+        <v>444.047036270552</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>522.652680240431</v>
+        <v>1303.155925325562</v>
       </c>
       <c r="C14" t="n">
-        <v>522.652680240431</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="D14" t="n">
-        <v>522.652680240431</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E14" t="n">
-        <v>522.652680240431</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F14" t="n">
-        <v>522.652680240431</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G14" t="n">
-        <v>522.652680240431</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H14" t="n">
         <v>200.4562446116507</v>
@@ -5302,28 +5302,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U14" t="n">
-        <v>2422.196584426364</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V14" t="n">
-        <v>2080.089775129883</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W14" t="n">
-        <v>1709.09074009817</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X14" t="n">
-        <v>1319.638135031227</v>
+        <v>1524.144603804654</v>
       </c>
       <c r="Y14" t="n">
-        <v>923.1474259518279</v>
+        <v>1524.144603804654</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5466,22 +5466,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>522.652680240431</v>
+        <v>979.0728748920524</v>
       </c>
       <c r="C17" t="n">
-        <v>129.4771787433615</v>
+        <v>585.897373394983</v>
       </c>
       <c r="D17" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="E17" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F17" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G17" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5539,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432349</v>
+        <v>3102.117381518569</v>
       </c>
       <c r="T17" t="n">
-        <v>2677.949313991765</v>
+        <v>2878.616779077985</v>
       </c>
       <c r="U17" t="n">
-        <v>2422.196584426364</v>
+        <v>2878.616779077985</v>
       </c>
       <c r="V17" t="n">
-        <v>2080.089775129883</v>
+        <v>2536.509969781504</v>
       </c>
       <c r="W17" t="n">
-        <v>1709.09074009817</v>
+        <v>2165.510934749791</v>
       </c>
       <c r="X17" t="n">
-        <v>1319.638135031227</v>
+        <v>1776.058329682848</v>
       </c>
       <c r="Y17" t="n">
-        <v>923.1474259518279</v>
+        <v>1379.567620603449</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.751451778568</v>
+        <v>400.5782995386808</v>
       </c>
       <c r="C19" t="n">
-        <v>260.751451778568</v>
+        <v>230.37318160467</v>
       </c>
       <c r="D19" t="n">
-        <v>260.751451778568</v>
+        <v>230.37318160467</v>
       </c>
       <c r="E19" t="n">
-        <v>260.751451778568</v>
+        <v>230.37318160467</v>
       </c>
       <c r="F19" t="n">
-        <v>260.751451778568</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G19" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
         <v>62.11912770411553</v>
@@ -5697,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>636.8490770607943</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T19" t="n">
-        <v>636.8490770607943</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U19" t="n">
-        <v>351.4102853026953</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="V19" t="n">
-        <v>351.4102853026953</v>
+        <v>494.7707212490415</v>
       </c>
       <c r="W19" t="n">
-        <v>351.4102853026953</v>
+        <v>494.7707212490415</v>
       </c>
       <c r="X19" t="n">
-        <v>351.4102853026953</v>
+        <v>400.5782995386808</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.751451778568</v>
+        <v>400.5782995386808</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>522.652680240431</v>
+        <v>1410.897960992606</v>
       </c>
       <c r="C20" t="n">
-        <v>129.4771787433615</v>
+        <v>1017.722459495537</v>
       </c>
       <c r="D20" t="n">
-        <v>62.11912770411551</v>
+        <v>632.2813307122046</v>
       </c>
       <c r="E20" t="n">
-        <v>62.11912770411551</v>
+        <v>632.2813307122046</v>
       </c>
       <c r="F20" t="n">
-        <v>62.11912770411551</v>
+        <v>632.2813307122046</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411551</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5776,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031227</v>
+        <v>2207.883415783402</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.1474259518279</v>
+        <v>1811.392706704003</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>2779.239312020903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>2543.520260189137</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U22" t="n">
-        <v>2258.081468431038</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V22" t="n">
-        <v>2204.509362664224</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W22" t="n">
-        <v>2204.509362664224</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1206.412481019843</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C23" t="n">
-        <v>813.2369795227737</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D23" t="n">
-        <v>427.7958507394414</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>427.7958507394414</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>427.7958507394414</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6013,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V23" t="n">
-        <v>2763.849575909295</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W23" t="n">
-        <v>2392.850540877582</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X23" t="n">
-        <v>2003.397935810639</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y23" t="n">
-        <v>1606.90722673124</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>2779.239312020903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>2543.520260189137</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>2258.081468431038</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
-        <v>2204.509362664224</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2397.459527283501</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="C26" t="n">
-        <v>2004.284025786432</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D26" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E26" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F26" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6256,22 +6256,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V26" t="n">
-        <v>3105.956385205776</v>
+        <v>2462.744336392098</v>
       </c>
       <c r="W26" t="n">
-        <v>3105.956385205776</v>
+        <v>2091.745301360386</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.956385205776</v>
+        <v>2091.745301360386</v>
       </c>
       <c r="Y26" t="n">
-        <v>2797.954272994898</v>
+        <v>1695.254592280987</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.156408878212</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N27" t="n">
-        <v>1863.93438008877</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O27" t="n">
-        <v>2380.454662679751</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>522.652680240431</v>
+        <v>1346.588908101251</v>
       </c>
       <c r="C29" t="n">
-        <v>129.4771787433615</v>
+        <v>953.4134066041818</v>
       </c>
       <c r="D29" t="n">
-        <v>62.11912770411551</v>
+        <v>953.4134066041818</v>
       </c>
       <c r="E29" t="n">
-        <v>62.11912770411551</v>
+        <v>803.0966166076471</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411551</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411551</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6487,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T29" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.196584426364</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V29" t="n">
-        <v>2080.089775129883</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W29" t="n">
-        <v>1709.09074009817</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X29" t="n">
-        <v>1319.638135031227</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="Y29" t="n">
-        <v>923.1474259518279</v>
+        <v>1747.083653812648</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>2870.237333374011</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U31" t="n">
-        <v>2870.237333374011</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V31" t="n">
-        <v>2870.237333374011</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
-        <v>2586.906931305188</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>2352.826609088171</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>522.652680240431</v>
+        <v>1601.700500902976</v>
       </c>
       <c r="C32" t="n">
-        <v>129.4771787433615</v>
+        <v>1601.700500902976</v>
       </c>
       <c r="D32" t="n">
-        <v>62.11912770411551</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E32" t="n">
-        <v>62.11912770411551</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F32" t="n">
-        <v>62.11912770411551</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411551</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.196584426364</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V32" t="n">
-        <v>2080.089775129883</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="W32" t="n">
-        <v>1709.09074009817</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="X32" t="n">
-        <v>1319.638135031227</v>
+        <v>1984.382813342819</v>
       </c>
       <c r="Y32" t="n">
-        <v>923.1474259518279</v>
+        <v>1601.700500902976</v>
       </c>
     </row>
     <row r="33">
@@ -6791,13 +6791,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2935.751267271766</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2935.751267271766</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2691.714663140105</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2523.46060923955</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2367.982058201044</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1340.285575440613</v>
+        <v>1178.900155517229</v>
       </c>
       <c r="C35" t="n">
-        <v>1340.285575440613</v>
+        <v>785.7246540201597</v>
       </c>
       <c r="D35" t="n">
-        <v>1340.285575440613</v>
+        <v>400.2835252368275</v>
       </c>
       <c r="E35" t="n">
-        <v>937.702050557157</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6961,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V35" t="n">
-        <v>2763.849575909295</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W35" t="n">
-        <v>2392.850540877582</v>
+        <v>1964.843469663571</v>
       </c>
       <c r="X35" t="n">
-        <v>2003.397935810639</v>
+        <v>1575.390864596628</v>
       </c>
       <c r="Y35" t="n">
-        <v>1606.90722673124</v>
+        <v>1178.900155517229</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>822.3203958792419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>1305.886481777555</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1933.658131404236</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>2589.436102614795</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>3105.956385205776</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U37" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V37" t="n">
-        <v>3105.956385205776</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W37" t="n">
-        <v>2822.625983136954</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X37" t="n">
-        <v>2588.545660919937</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>2365.43359973658</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2073.376476849992</v>
+        <v>2053.218200849579</v>
       </c>
       <c r="C38" t="n">
-        <v>1680.200975352922</v>
+        <v>1660.04269935251</v>
       </c>
       <c r="D38" t="n">
         <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>892.1763216861345</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7207,19 +7207,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>3105.956385205776</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V38" t="n">
-        <v>3105.956385205776</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="W38" t="n">
-        <v>3105.956385205776</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="X38" t="n">
-        <v>2870.361931640788</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="Y38" t="n">
-        <v>2473.871222561389</v>
+        <v>2453.712946560976</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>219.4450624911426</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C40" t="n">
-        <v>219.4450624911426</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D40" t="n">
-        <v>219.4450624911426</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E40" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
         <v>62.11912770411553</v>
@@ -7356,28 +7356,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>485.4244076703184</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>485.4244076703184</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V40" t="n">
-        <v>219.4450624911426</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W40" t="n">
-        <v>219.4450624911426</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X40" t="n">
-        <v>219.4450624911426</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.4450624911426</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1747.771990524249</v>
+        <v>2012.018398500169</v>
       </c>
       <c r="C41" t="n">
-        <v>1354.596489027179</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D41" t="n">
-        <v>1354.596489027179</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E41" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F41" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G41" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2118.082688844361</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W41" t="n">
-        <v>1747.771990524249</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X41" t="n">
-        <v>1747.771990524249</v>
+        <v>2809.003853290965</v>
       </c>
       <c r="Y41" t="n">
-        <v>1747.771990524249</v>
+        <v>2412.513144211566</v>
       </c>
     </row>
     <row r="42">
@@ -7493,13 +7493,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1919.518325348037</v>
+        <v>1880.963859200969</v>
       </c>
       <c r="C44" t="n">
-        <v>1526.342823850968</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="D44" t="n">
-        <v>1140.901695067635</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="E44" t="n">
-        <v>738.3181701841797</v>
+        <v>1085.204832820444</v>
       </c>
       <c r="F44" t="n">
-        <v>321.4237317141575</v>
+        <v>668.3103943504221</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411551</v>
+        <v>255.1476388384253</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411551</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7672,28 +7672,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W44" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X44" t="n">
-        <v>2716.503780138833</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y44" t="n">
-        <v>2320.013071059434</v>
+        <v>2281.458604912366</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C46" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D46" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G46" t="n">
         <v>62.11912770411553</v>
@@ -7839,19 +7839,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>845.5091971691305</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>579.5298519899548</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W46" t="n">
-        <v>296.1994499211324</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X46" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N3" t="n">
-        <v>569.9919810238538</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -8306,13 +8306,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>258.8480380294549</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8461,7 +8461,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8531,16 +8531,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>237.5738335035115</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8549,7 +8549,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8710,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8771,22 +8771,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8947,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9008,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9491,13 +9491,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9956,7 +9956,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9965,13 +9965,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10439,16 +10439,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10667,13 +10667,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10682,10 +10682,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,25 +10904,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11141,16 +11141,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11387,7 +11387,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.60877045599301</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>17.12707600682916</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22713,22 +22713,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>22.31857408728007</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22786,22 +22786,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22840,10 +22840,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.10344448772094</v>
+        <v>302.2128451588794</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>23.75629858734686</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>175.8314535682945</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>314.9022469666454</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>251.7946588858835</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>22.31857408728007</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>125.8956043516755</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
@@ -23472,7 +23472,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23481,7 +23481,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>177.7110065599814</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -23512,7 +23512,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>1.867748656681783</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>314.9022469666454</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -23752,7 +23752,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>161.0478058580246</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23913,7 +23913,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>138.4890215015897</v>
       </c>
       <c r="Y19" t="n">
-        <v>131.1286953826371</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>314.9022469666454</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23983,10 +23983,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>165.4127669080429</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>210.2831670182379</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>47.01117215190419</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
@@ -24265,10 +24265,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>210.2831670182379</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24496,22 +24496,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>176.3666115639005</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>87.60371089983539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>314.9022469666454</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>249.7440675380516</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24891,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>74.04686661181518</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>314.9022469666454</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>13.67031267316088</v>
       </c>
     </row>
     <row r="33">
@@ -25077,28 +25077,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>68.15966136820188</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.5343634765616</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>384.6171560064103</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.04094380275544</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25365,22 +25365,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>19.95669324040847</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25456,7 +25456,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>152.3195699869349</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>87.97172531928879</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>83.451438616877</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0.6814533444846802</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>91.57507242061035</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>152.3195699869353</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>266.6977396446674</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
@@ -25930,7 +25930,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>100.5400146614482</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26079,7 +26079,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>687548.5210013444</v>
+        <v>687548.5210013443</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>687548.5210013444</v>
+        <v>687548.521001344</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>687548.5210013444</v>
+        <v>687548.5210013443</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>687548.5210013443</v>
+        <v>687548.5210013444</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687548.5210013444</v>
+        <v>687548.5210013443</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>687548.5210013442</v>
+        <v>687548.5210013443</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687548.5210013444</v>
+        <v>687548.5210013443</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>687548.5210013444</v>
+        <v>687548.5210013443</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>687548.5210013442</v>
+        <v>687548.5210013444</v>
       </c>
     </row>
     <row r="14">
@@ -26319,7 +26319,7 @@
         <v>241723.0823229922</v>
       </c>
       <c r="D2" t="n">
-        <v>241723.0823229922</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="E2" t="n">
         <v>241723.0823229922</v>
@@ -26328,16 +26328,16 @@
         <v>241723.0823229922</v>
       </c>
       <c r="G2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="H2" t="n">
         <v>241723.0823229922</v>
       </c>
       <c r="I2" t="n">
+        <v>241723.0823229922</v>
+      </c>
+      <c r="J2" t="n">
         <v>241723.0823229923</v>
-      </c>
-      <c r="J2" t="n">
-        <v>241723.0823229922</v>
       </c>
       <c r="K2" t="n">
         <v>241723.0823229922</v>
@@ -26349,13 +26349,13 @@
         <v>241723.0823229922</v>
       </c>
       <c r="N2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="O2" t="n">
         <v>241723.0823229922</v>
       </c>
       <c r="P2" t="n">
-        <v>241723.0823229922</v>
+        <v>241723.0823229923</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138596.1097358909</v>
+        <v>-139127.2047677561</v>
       </c>
       <c r="C6" t="n">
-        <v>121623.2456839379</v>
+        <v>121092.1506520727</v>
       </c>
       <c r="D6" t="n">
-        <v>121623.2456839378</v>
+        <v>121092.1506520728</v>
       </c>
       <c r="E6" t="n">
-        <v>155250.8456839379</v>
+        <v>154719.7506520727</v>
       </c>
       <c r="F6" t="n">
-        <v>155250.8456839379</v>
+        <v>154719.7506520727</v>
       </c>
       <c r="G6" t="n">
-        <v>155250.845683938</v>
+        <v>154719.7506520727</v>
       </c>
       <c r="H6" t="n">
-        <v>155250.8456839378</v>
+        <v>154719.7506520727</v>
       </c>
       <c r="I6" t="n">
-        <v>155250.845683938</v>
+        <v>154719.7506520727</v>
       </c>
       <c r="J6" t="n">
-        <v>-47912.86742875713</v>
+        <v>-48443.96246062228</v>
       </c>
       <c r="K6" t="n">
-        <v>155250.8456839379</v>
+        <v>154719.7506520727</v>
       </c>
       <c r="L6" t="n">
-        <v>155250.8456839379</v>
+        <v>154719.7506520727</v>
       </c>
       <c r="M6" t="n">
-        <v>155250.8456839379</v>
+        <v>154719.7506520727</v>
       </c>
       <c r="N6" t="n">
-        <v>155250.845683938</v>
+        <v>154719.7506520727</v>
       </c>
       <c r="O6" t="n">
-        <v>155250.8456839379</v>
+        <v>154719.7506520727</v>
       </c>
       <c r="P6" t="n">
-        <v>155250.8456839379</v>
+        <v>154719.7506520728</v>
       </c>
     </row>
   </sheetData>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N3" t="n">
-        <v>484.6198681696871</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35269,7 +35269,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35667,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36211,13 +36211,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36685,13 +36685,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>35.05004611020369</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37402,10 +37402,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -38107,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38116,7 +38116,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
